--- a/Data/ZZ1000.xlsx
+++ b/Data/ZZ1000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\adhc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E2F142-6BB9-4756-93CD-E687284484E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B6A4D2-A97F-4666-ADA7-232D4CE8F8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57705" yWindow="-15870" windowWidth="19410" windowHeight="20985" xr2:uid="{9593DA16-7C4A-49DF-B568-FF199D899E0F}"/>
+    <workbookView xWindow="-45210" yWindow="-11460" windowWidth="21585" windowHeight="11985" xr2:uid="{9593DA16-7C4A-49DF-B568-FF199D899E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -77,8 +68,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -119,7 +112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,7 +122,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E418F4F0-4C8B-423D-BF5D-EE2199ABA924}">
-  <dimension ref="A1:J2120"/>
+  <dimension ref="A1:J2131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G2134" sqref="G2134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -68301,6 +68303,358 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2121" s="4">
+        <v>45110</v>
+      </c>
+      <c r="B2121" s="5">
+        <v>6612.8843999999999</v>
+      </c>
+      <c r="C2121" s="5">
+        <v>36.787300109863281</v>
+      </c>
+      <c r="D2121" s="5">
+        <v>2.3429999351501465</v>
+      </c>
+      <c r="E2121" s="6">
+        <v>7.8029415351368758E-2</v>
+      </c>
+      <c r="F2121" s="5">
+        <v>16097735600</v>
+      </c>
+      <c r="G2121" s="5">
+        <v>225625497660</v>
+      </c>
+      <c r="H2121" s="5">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="I2121" s="2">
+        <v>13</v>
+      </c>
+      <c r="J2121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2122" s="4">
+        <v>45111</v>
+      </c>
+      <c r="B2122" s="5">
+        <v>6638.4471000000003</v>
+      </c>
+      <c r="C2122" s="5">
+        <v>36.956001281738281</v>
+      </c>
+      <c r="D2122" s="5">
+        <v>2.3533999919891357</v>
+      </c>
+      <c r="E2122" s="6">
+        <v>7.0620460323578271E-2</v>
+      </c>
+      <c r="F2122" s="5">
+        <v>13974279500</v>
+      </c>
+      <c r="G2122" s="5">
+        <v>203584274309</v>
+      </c>
+      <c r="H2122" s="5">
+        <v>1.5165999999999999</v>
+      </c>
+      <c r="I2122" s="2">
+        <v>13</v>
+      </c>
+      <c r="J2122" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2123" s="4">
+        <v>45112</v>
+      </c>
+      <c r="B2123" s="5">
+        <v>6584.4232000000002</v>
+      </c>
+      <c r="C2123" s="5">
+        <v>36.660198211669922</v>
+      </c>
+      <c r="D2123" s="5">
+        <v>2.3347001075744629</v>
+      </c>
+      <c r="E2123" s="6">
+        <v>8.8953936915904031E-2</v>
+      </c>
+      <c r="F2123" s="5">
+        <v>13305228000</v>
+      </c>
+      <c r="G2123" s="5">
+        <v>184778773163</v>
+      </c>
+      <c r="H2123" s="5">
+        <v>1.4435</v>
+      </c>
+      <c r="I2123" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2123" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2124" s="4">
+        <v>45113</v>
+      </c>
+      <c r="B2124" s="5">
+        <v>6567.0789000000004</v>
+      </c>
+      <c r="C2124" s="5">
+        <v>36.501899719238281</v>
+      </c>
+      <c r="D2124" s="5">
+        <v>2.3271000385284424</v>
+      </c>
+      <c r="E2124" s="6">
+        <v>9.7183440017373446E-2</v>
+      </c>
+      <c r="F2124" s="5">
+        <v>12407726800</v>
+      </c>
+      <c r="G2124" s="5">
+        <v>173721970871</v>
+      </c>
+      <c r="H2124" s="5">
+        <v>1.345</v>
+      </c>
+      <c r="I2124" s="2">
+        <v>6</v>
+      </c>
+      <c r="J2124" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2125" s="4">
+        <v>45114</v>
+      </c>
+      <c r="B2125" s="5">
+        <v>6521.4264999999996</v>
+      </c>
+      <c r="C2125" s="5">
+        <v>36.277301788330078</v>
+      </c>
+      <c r="D2125" s="5">
+        <v>2.314500093460083</v>
+      </c>
+      <c r="E2125" s="6">
+        <v>0.11824459042950819</v>
+      </c>
+      <c r="F2125" s="5">
+        <v>12359954100</v>
+      </c>
+      <c r="G2125" s="5">
+        <v>164996211439</v>
+      </c>
+      <c r="H2125" s="5">
+        <v>1.3396999999999999</v>
+      </c>
+      <c r="I2125" s="2">
+        <v>4</v>
+      </c>
+      <c r="J2125" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2126" s="4">
+        <v>45117</v>
+      </c>
+      <c r="B2126" s="5">
+        <v>6526.8518999999997</v>
+      </c>
+      <c r="C2126" s="5">
+        <v>36.297599792480469</v>
+      </c>
+      <c r="D2126" s="5">
+        <v>2.3168001174926758</v>
+      </c>
+      <c r="E2126" s="6">
+        <v>0.11150310135427555</v>
+      </c>
+      <c r="F2126" s="5">
+        <v>12045093600</v>
+      </c>
+      <c r="G2126" s="5">
+        <v>158540731785</v>
+      </c>
+      <c r="H2126" s="5">
+        <v>1.3031999999999999</v>
+      </c>
+      <c r="I2126" s="2">
+        <v>5</v>
+      </c>
+      <c r="J2126" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2127" s="4">
+        <v>45118</v>
+      </c>
+      <c r="B2127" s="5">
+        <v>6579.3694999999998</v>
+      </c>
+      <c r="C2127" s="5">
+        <v>36.595500946044922</v>
+      </c>
+      <c r="D2127" s="5">
+        <v>2.3368000984191895</v>
+      </c>
+      <c r="E2127" s="6">
+        <v>9.8976339026930482E-2</v>
+      </c>
+      <c r="F2127" s="5">
+        <v>11960364400</v>
+      </c>
+      <c r="G2127" s="5">
+        <v>163273435605</v>
+      </c>
+      <c r="H2127" s="5">
+        <v>1.2936000000000001</v>
+      </c>
+      <c r="I2127" s="2">
+        <v>7</v>
+      </c>
+      <c r="J2127" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2128" s="4">
+        <v>45119</v>
+      </c>
+      <c r="B2128" s="5">
+        <v>6482.9867000000004</v>
+      </c>
+      <c r="C2128" s="5">
+        <v>36.077899932861328</v>
+      </c>
+      <c r="D2128" s="5">
+        <v>2.3041999340057373</v>
+      </c>
+      <c r="E2128" s="6">
+        <v>0.13307995909112291</v>
+      </c>
+      <c r="F2128" s="5">
+        <v>14020447100</v>
+      </c>
+      <c r="G2128" s="5">
+        <v>187051032495</v>
+      </c>
+      <c r="H2128" s="5">
+        <v>1.5162</v>
+      </c>
+      <c r="I2128" s="2">
+        <v>4</v>
+      </c>
+      <c r="J2128" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2129" s="4">
+        <v>45120</v>
+      </c>
+      <c r="B2129" s="5">
+        <v>6548.3128999999999</v>
+      </c>
+      <c r="C2129" s="5">
+        <v>36.443599700927734</v>
+      </c>
+      <c r="D2129" s="5">
+        <v>2.3278999328613281</v>
+      </c>
+      <c r="E2129" s="6">
+        <v>0.10376604124302036</v>
+      </c>
+      <c r="F2129" s="5">
+        <v>13511775700</v>
+      </c>
+      <c r="G2129" s="5">
+        <v>180915189196</v>
+      </c>
+      <c r="H2129" s="5">
+        <v>1.4605999999999999</v>
+      </c>
+      <c r="I2129" s="2">
+        <v>7</v>
+      </c>
+      <c r="J2129" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2130" s="4">
+        <v>45121</v>
+      </c>
+      <c r="B2130" s="5">
+        <v>6544.4593000000004</v>
+      </c>
+      <c r="C2130" s="5">
+        <v>36.394798278808594</v>
+      </c>
+      <c r="D2130" s="5">
+        <v>2.325200080871582</v>
+      </c>
+      <c r="E2130" s="6">
+        <v>9.9445397947608871E-2</v>
+      </c>
+      <c r="F2130" s="5">
+        <v>13563197100</v>
+      </c>
+      <c r="G2130" s="5">
+        <v>188566810413</v>
+      </c>
+      <c r="H2130" s="5">
+        <v>1.4661</v>
+      </c>
+      <c r="I2130" s="2">
+        <v>10</v>
+      </c>
+      <c r="J2130" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2131" s="4">
+        <v>45124</v>
+      </c>
+      <c r="B2131" s="5">
+        <v>6516.56</v>
+      </c>
+      <c r="C2131" s="5">
+        <v>36.237499237060547</v>
+      </c>
+      <c r="D2131" s="5">
+        <v>2.3176999092102051</v>
+      </c>
+      <c r="E2131" s="6">
+        <v>0.12337232439838841</v>
+      </c>
+      <c r="F2131" s="5">
+        <v>12640877300</v>
+      </c>
+      <c r="G2131" s="5">
+        <v>169117052479</v>
+      </c>
+      <c r="H2131" s="5">
+        <v>1.3657999999999999</v>
+      </c>
+      <c r="I2131" s="2">
+        <v>11</v>
+      </c>
+      <c r="J2131" s="2">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/ZZ1000.xlsx
+++ b/Data/ZZ1000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B6A4D2-A97F-4666-ADA7-232D4CE8F8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BE3821-BF54-4555-AA6D-C9F42961933B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45210" yWindow="-11460" windowWidth="21585" windowHeight="11985" xr2:uid="{9593DA16-7C4A-49DF-B568-FF199D899E0F}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{9593DA16-7C4A-49DF-B568-FF199D899E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E418F4F0-4C8B-423D-BF5D-EE2199ABA924}">
-  <dimension ref="A1:J2131"/>
+  <dimension ref="A1:J2133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2134" sqref="G2134"/>
+    <sheetView tabSelected="1" topLeftCell="A2114" workbookViewId="0">
+      <selection activeCell="H2132" sqref="H2132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -68655,6 +68655,70 @@
         <v>32</v>
       </c>
     </row>
+    <row r="2132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2132" s="4">
+        <v>45125</v>
+      </c>
+      <c r="B2132" s="5">
+        <v>6510.0340999999999</v>
+      </c>
+      <c r="C2132" s="5">
+        <v>36.13909912109375</v>
+      </c>
+      <c r="D2132" s="5">
+        <v>2.3159999847412109</v>
+      </c>
+      <c r="E2132" s="6">
+        <v>0.14088613197366007</v>
+      </c>
+      <c r="F2132" s="5">
+        <v>11996865300</v>
+      </c>
+      <c r="G2132" s="5">
+        <v>159965850727</v>
+      </c>
+      <c r="H2132" s="5">
+        <v>1.2962</v>
+      </c>
+      <c r="I2132" s="2">
+        <v>13</v>
+      </c>
+      <c r="J2132" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2133" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B2133" s="5">
+        <v>6492.3486999999996</v>
+      </c>
+      <c r="C2133" s="5">
+        <v>36.047000885009766</v>
+      </c>
+      <c r="D2133" s="5">
+        <v>2.3106000423431396</v>
+      </c>
+      <c r="E2133" s="6">
+        <v>0.14775589493841235</v>
+      </c>
+      <c r="F2133" s="5">
+        <v>10913633500</v>
+      </c>
+      <c r="G2133" s="5">
+        <v>141853309419</v>
+      </c>
+      <c r="H2133" s="5">
+        <v>1.1791</v>
+      </c>
+      <c r="I2133" s="2">
+        <v>11</v>
+      </c>
+      <c r="J2133" s="2">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/ZZ1000.xlsx
+++ b/Data/ZZ1000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BE3821-BF54-4555-AA6D-C9F42961933B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635BDF5E-8D24-4B9E-8822-FDC71DC1DDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{9593DA16-7C4A-49DF-B568-FF199D899E0F}"/>
+    <workbookView xWindow="2625" yWindow="2010" windowWidth="21600" windowHeight="11295" xr2:uid="{9593DA16-7C4A-49DF-B568-FF199D899E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E418F4F0-4C8B-423D-BF5D-EE2199ABA924}">
-  <dimension ref="A1:J2133"/>
+  <dimension ref="A1:J2136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2114" workbookViewId="0">
-      <selection activeCell="H2132" sqref="H2132"/>
+      <selection activeCell="I2134" sqref="I2134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -68719,6 +68719,102 @@
         <v>31</v>
       </c>
     </row>
+    <row r="2134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2134" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B2134" s="5">
+        <v>6408.7597999999998</v>
+      </c>
+      <c r="C2134" s="5">
+        <v>35.593601226806641</v>
+      </c>
+      <c r="D2134" s="5">
+        <v>2.2832000255584717</v>
+      </c>
+      <c r="E2134" s="6">
+        <v>0.1862937447545181</v>
+      </c>
+      <c r="F2134" s="5">
+        <v>12215096200</v>
+      </c>
+      <c r="G2134" s="5">
+        <v>155152822236</v>
+      </c>
+      <c r="H2134" s="5">
+        <v>1.3197000000000001</v>
+      </c>
+      <c r="I2134" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2134" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2135" s="4">
+        <v>45128</v>
+      </c>
+      <c r="B2135" s="5">
+        <v>6401.4168</v>
+      </c>
+      <c r="C2135" s="5">
+        <v>35.571300506591797</v>
+      </c>
+      <c r="D2135" s="5">
+        <v>2.2816998958587646</v>
+      </c>
+      <c r="E2135" s="6">
+        <v>0.19855510104610286</v>
+      </c>
+      <c r="F2135" s="5">
+        <v>11359084900</v>
+      </c>
+      <c r="G2135" s="5">
+        <v>138788097492</v>
+      </c>
+      <c r="H2135" s="5">
+        <v>1.2272000000000001</v>
+      </c>
+      <c r="I2135" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2135" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2136" s="4">
+        <v>45131</v>
+      </c>
+      <c r="B2136" s="5">
+        <v>6393.7938000000004</v>
+      </c>
+      <c r="C2136" s="5">
+        <v>35.521099090576172</v>
+      </c>
+      <c r="D2136" s="5">
+        <v>2.2790000438690186</v>
+      </c>
+      <c r="E2136" s="6">
+        <v>0.20982820408815073</v>
+      </c>
+      <c r="F2136" s="5">
+        <v>10904946500</v>
+      </c>
+      <c r="G2136" s="5">
+        <v>129838947141</v>
+      </c>
+      <c r="H2136" s="5">
+        <v>1.1773</v>
+      </c>
+      <c r="I2136" s="2">
+        <v>5</v>
+      </c>
+      <c r="J2136" s="2">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/ZZ1000.xlsx
+++ b/Data/ZZ1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635BDF5E-8D24-4B9E-8822-FDC71DC1DDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540664CF-2DE1-4E4E-A3C4-FD6E32FB40D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="2010" windowWidth="21600" windowHeight="11295" xr2:uid="{9593DA16-7C4A-49DF-B568-FF199D899E0F}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="21600" windowHeight="11295" xr2:uid="{9593DA16-7C4A-49DF-B568-FF199D899E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,16 +448,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E418F4F0-4C8B-423D-BF5D-EE2199ABA924}">
-  <dimension ref="A1:J2136"/>
+  <dimension ref="A1:J2153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2114" workbookViewId="0">
-      <selection activeCell="I2134" sqref="I2134"/>
+    <sheetView tabSelected="1" topLeftCell="A2138" workbookViewId="0">
+      <selection activeCell="F2147" sqref="F2147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="2"/>
+    <col min="2" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="30.25" style="3" customWidth="1"/>
     <col min="8" max="10" width="9" style="2"/>
@@ -68815,6 +68816,550 @@
         <v>31</v>
       </c>
     </row>
+    <row r="2137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2137" s="1">
+        <v>45132</v>
+      </c>
+      <c r="B2137" s="2">
+        <v>6498.2687999999998</v>
+      </c>
+      <c r="C2137" s="2">
+        <v>36.083000183105469</v>
+      </c>
+      <c r="D2137" s="2">
+        <v>2.3152999877929688</v>
+      </c>
+      <c r="E2137" s="6">
+        <v>0.11178817427995646</v>
+      </c>
+      <c r="F2137" s="2">
+        <v>14736572700</v>
+      </c>
+      <c r="G2137" s="3">
+        <v>173378677340</v>
+      </c>
+      <c r="H2137" s="2">
+        <v>1.5909</v>
+      </c>
+      <c r="I2137" s="2">
+        <v>9</v>
+      </c>
+      <c r="J2137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2138" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B2138" s="2">
+        <v>6457.2534999999998</v>
+      </c>
+      <c r="C2138" s="2">
+        <v>35.910598754882813</v>
+      </c>
+      <c r="D2138" s="2">
+        <v>2.3048000335693359</v>
+      </c>
+      <c r="E2138" s="6">
+        <v>0.13869319552637283</v>
+      </c>
+      <c r="F2138" s="2">
+        <v>14958352200</v>
+      </c>
+      <c r="G2138" s="3">
+        <v>156686884800</v>
+      </c>
+      <c r="H2138" s="2">
+        <v>1.6149</v>
+      </c>
+      <c r="I2138" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2138" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2139" s="1">
+        <v>45134</v>
+      </c>
+      <c r="B2139" s="2">
+        <v>6407.5460999999996</v>
+      </c>
+      <c r="C2139" s="2">
+        <v>35.659599304199219</v>
+      </c>
+      <c r="D2139" s="2">
+        <v>2.2892000675201416</v>
+      </c>
+      <c r="E2139" s="6">
+        <v>0.16899398959130085</v>
+      </c>
+      <c r="F2139" s="2">
+        <v>14462435800</v>
+      </c>
+      <c r="G2139" s="3">
+        <v>153183204640</v>
+      </c>
+      <c r="H2139" s="2">
+        <v>1.5610999999999999</v>
+      </c>
+      <c r="I2139" s="2">
+        <v>4</v>
+      </c>
+      <c r="J2139" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2140" s="1">
+        <v>45135</v>
+      </c>
+      <c r="B2140" s="2">
+        <v>6465.3762999999999</v>
+      </c>
+      <c r="C2140" s="2">
+        <v>36.008899688720703</v>
+      </c>
+      <c r="D2140" s="2">
+        <v>2.311500072479248</v>
+      </c>
+      <c r="E2140" s="6">
+        <v>0.12529124312186735</v>
+      </c>
+      <c r="F2140" s="2">
+        <v>15726753200</v>
+      </c>
+      <c r="G2140" s="3">
+        <v>166557072700</v>
+      </c>
+      <c r="H2140" s="2">
+        <v>1.6976</v>
+      </c>
+      <c r="I2140" s="2">
+        <v>13</v>
+      </c>
+      <c r="J2140" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2141" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B2141" s="2">
+        <v>6515.8486000000003</v>
+      </c>
+      <c r="C2141" s="2">
+        <v>36.239101409912109</v>
+      </c>
+      <c r="D2141" s="2">
+        <v>2.3264000415802002</v>
+      </c>
+      <c r="E2141" s="6">
+        <v>9.5150320494095553E-2</v>
+      </c>
+      <c r="F2141" s="2">
+        <v>18381598000</v>
+      </c>
+      <c r="G2141" s="3">
+        <v>200589879397</v>
+      </c>
+      <c r="H2141" s="2">
+        <v>1.9818</v>
+      </c>
+      <c r="I2141" s="2">
+        <v>21</v>
+      </c>
+      <c r="J2141" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2142" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B2142" s="2">
+        <v>6507.4124000000002</v>
+      </c>
+      <c r="C2142" s="2">
+        <v>36.154701232910156</v>
+      </c>
+      <c r="D2142" s="2">
+        <v>2.3217999935150146</v>
+      </c>
+      <c r="E2142" s="2">
+        <v>0.11139203035576628</v>
+      </c>
+      <c r="F2142" s="2">
+        <v>18432646400</v>
+      </c>
+      <c r="G2142" s="3">
+        <v>183590037300</v>
+      </c>
+      <c r="H2142" s="2">
+        <v>1.9871000000000001</v>
+      </c>
+      <c r="I2142" s="2">
+        <v>19</v>
+      </c>
+      <c r="J2142" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2143" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B2143" s="2">
+        <v>6496.0222000000003</v>
+      </c>
+      <c r="C2143" s="2">
+        <v>36.077301025390625</v>
+      </c>
+      <c r="D2143" s="2">
+        <v>2.3169000148773193</v>
+      </c>
+      <c r="E2143" s="2">
+        <v>0.1196259725033646</v>
+      </c>
+      <c r="F2143" s="2">
+        <v>16864628900</v>
+      </c>
+      <c r="G2143" s="3">
+        <v>171110955344</v>
+      </c>
+      <c r="H2143" s="2">
+        <v>1.8178000000000001</v>
+      </c>
+      <c r="I2143" s="2">
+        <v>21</v>
+      </c>
+      <c r="J2143" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2144" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B2144" s="2">
+        <v>6499.5447999999997</v>
+      </c>
+      <c r="C2144" s="2">
+        <v>36.076999664306641</v>
+      </c>
+      <c r="D2144" s="2">
+        <v>2.3178000450134277</v>
+      </c>
+      <c r="E2144" s="2">
+        <v>0.1268491263267828</v>
+      </c>
+      <c r="F2144" s="2">
+        <v>16347139500</v>
+      </c>
+      <c r="G2144" s="3">
+        <v>164830188575</v>
+      </c>
+      <c r="H2144" s="2">
+        <v>1.7616000000000001</v>
+      </c>
+      <c r="I2144" s="2">
+        <v>19</v>
+      </c>
+      <c r="J2144" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2145" s="1">
+        <v>45142</v>
+      </c>
+      <c r="B2145" s="2">
+        <v>6535.3220000000001</v>
+      </c>
+      <c r="C2145" s="2">
+        <v>36.237800598144531</v>
+      </c>
+      <c r="D2145" s="2">
+        <v>2.3269999027252197</v>
+      </c>
+      <c r="E2145" s="2">
+        <v>0.11134937522119515</v>
+      </c>
+      <c r="F2145" s="2">
+        <v>19462299900</v>
+      </c>
+      <c r="G2145" s="3">
+        <v>205415679148</v>
+      </c>
+      <c r="H2145" s="2">
+        <v>2.0971000000000002</v>
+      </c>
+      <c r="I2145" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2145" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2146" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B2146" s="2">
+        <v>6503.9825000000001</v>
+      </c>
+      <c r="C2146" s="2">
+        <v>36.046600341796875</v>
+      </c>
+      <c r="D2146" s="2">
+        <v>2.3117001056671143</v>
+      </c>
+      <c r="E2146" s="2">
+        <v>0.127586720850001</v>
+      </c>
+      <c r="F2146" s="2">
+        <v>16891941200</v>
+      </c>
+      <c r="G2146" s="3">
+        <v>185333349118</v>
+      </c>
+      <c r="H2146" s="2">
+        <v>1.8186</v>
+      </c>
+      <c r="I2146" s="2">
+        <v>12</v>
+      </c>
+      <c r="J2146" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2147" s="1">
+        <v>45146</v>
+      </c>
+      <c r="B2147" s="2">
+        <v>6471.3444</v>
+      </c>
+      <c r="C2147" s="2">
+        <v>35.898399353027344</v>
+      </c>
+      <c r="D2147" s="2">
+        <v>2.3004999160766602</v>
+      </c>
+      <c r="E2147" s="2">
+        <v>0.13773952160075664</v>
+      </c>
+      <c r="F2147" s="2">
+        <v>14274341400</v>
+      </c>
+      <c r="G2147" s="3">
+        <v>154646581021</v>
+      </c>
+      <c r="H2147" s="2">
+        <v>1.5367999999999999</v>
+      </c>
+      <c r="I2147" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2147" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2148" s="1">
+        <v>45147</v>
+      </c>
+      <c r="B2148" s="2">
+        <v>6420.9768000000004</v>
+      </c>
+      <c r="C2148" s="2">
+        <v>35.661201477050781</v>
+      </c>
+      <c r="D2148" s="2">
+        <v>2.2850000858306885</v>
+      </c>
+      <c r="E2148" s="2">
+        <v>0.15696799934106132</v>
+      </c>
+      <c r="F2148" s="2">
+        <v>13231946700</v>
+      </c>
+      <c r="G2148" s="3">
+        <v>148343587966</v>
+      </c>
+      <c r="H2148" s="2">
+        <v>1.4245000000000001</v>
+      </c>
+      <c r="I2148" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2148" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2149" s="1">
+        <v>45148</v>
+      </c>
+      <c r="B2149" s="2">
+        <v>6426.8141999999998</v>
+      </c>
+      <c r="C2149" s="2">
+        <v>35.754199981689453</v>
+      </c>
+      <c r="D2149" s="2">
+        <v>2.287100076675415</v>
+      </c>
+      <c r="E2149" s="2">
+        <v>0.14727421481147118</v>
+      </c>
+      <c r="F2149" s="2">
+        <v>13195769200</v>
+      </c>
+      <c r="G2149" s="3">
+        <v>134873259681</v>
+      </c>
+      <c r="H2149" s="2">
+        <v>1.4206000000000001</v>
+      </c>
+      <c r="I2149" s="2">
+        <v>4</v>
+      </c>
+      <c r="J2149" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2150" s="1">
+        <v>45149</v>
+      </c>
+      <c r="B2150" s="2">
+        <v>6304.6354000000001</v>
+      </c>
+      <c r="C2150" s="2">
+        <v>35.123798370361328</v>
+      </c>
+      <c r="D2150" s="2">
+        <v>2.2446999549865723</v>
+      </c>
+      <c r="E2150" s="2">
+        <v>0.19927248759244209</v>
+      </c>
+      <c r="F2150" s="2">
+        <v>14901672900</v>
+      </c>
+      <c r="G2150" s="3">
+        <v>149330410482</v>
+      </c>
+      <c r="H2150" s="2">
+        <v>1.6042000000000001</v>
+      </c>
+      <c r="I2150" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2150" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2151" s="1">
+        <v>45152</v>
+      </c>
+      <c r="B2151" s="2">
+        <v>6319.4072999999999</v>
+      </c>
+      <c r="C2151" s="2">
+        <v>35.244701385498047</v>
+      </c>
+      <c r="D2151" s="2">
+        <v>2.2481000423431396</v>
+      </c>
+      <c r="E2151" s="2">
+        <v>0.21160592312938364</v>
+      </c>
+      <c r="F2151" s="2">
+        <v>13839222100</v>
+      </c>
+      <c r="G2151" s="3">
+        <v>145626319568</v>
+      </c>
+      <c r="H2151" s="2">
+        <v>1.4898</v>
+      </c>
+      <c r="I2151" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2151" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2152" s="1">
+        <v>45153</v>
+      </c>
+      <c r="B2152" s="2">
+        <v>6261.7332999999999</v>
+      </c>
+      <c r="C2152" s="2">
+        <v>34.967899322509766</v>
+      </c>
+      <c r="D2152" s="2">
+        <v>2.2283999919891357</v>
+      </c>
+      <c r="E2152" s="2">
+        <v>0.28426572620784629</v>
+      </c>
+      <c r="F2152" s="2">
+        <v>12270310700</v>
+      </c>
+      <c r="G2152" s="3">
+        <v>132851531983</v>
+      </c>
+      <c r="H2152" s="2">
+        <v>1.3208</v>
+      </c>
+      <c r="I2152" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2152" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2153" s="1">
+        <v>45154</v>
+      </c>
+      <c r="B2153" s="2">
+        <v>6186.4029</v>
+      </c>
+      <c r="C2153" s="2">
+        <v>34.588199615478516</v>
+      </c>
+      <c r="D2153" s="2">
+        <v>2.2028000354766846</v>
+      </c>
+      <c r="E2153" s="2">
+        <v>2.8911594448890927</v>
+      </c>
+      <c r="F2153" s="2">
+        <v>12495875900</v>
+      </c>
+      <c r="G2153" s="3">
+        <v>132390724400</v>
+      </c>
+      <c r="H2153" s="2">
+        <v>1.3451</v>
+      </c>
+      <c r="I2153" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2153" s="2">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/ZZ1000.xlsx
+++ b/Data/ZZ1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540664CF-2DE1-4E4E-A3C4-FD6E32FB40D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8165DD8B-CBD5-4D27-BC39-40AFE9BEBA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3045" windowWidth="21600" windowHeight="11295" xr2:uid="{9593DA16-7C4A-49DF-B568-FF199D899E0F}"/>
+    <workbookView xWindow="-57720" yWindow="-15990" windowWidth="38640" windowHeight="21120" xr2:uid="{9593DA16-7C4A-49DF-B568-FF199D899E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E418F4F0-4C8B-423D-BF5D-EE2199ABA924}">
-  <dimension ref="A1:J2153"/>
+  <dimension ref="A1:J2170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2138" workbookViewId="0">
-      <selection activeCell="F2147" sqref="F2147"/>
+    <sheetView tabSelected="1" topLeftCell="A2102" workbookViewId="0">
+      <selection activeCell="M2164" sqref="M2164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -69342,7 +69342,7 @@
         <v>2.2028000354766846</v>
       </c>
       <c r="E2153" s="2">
-        <v>2.8911594448890927</v>
+        <v>0.32905944488909267</v>
       </c>
       <c r="F2153" s="2">
         <v>12495875900</v>
@@ -69358,6 +69358,550 @@
       </c>
       <c r="J2153" s="2">
         <v>104</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2154" s="1">
+        <v>45155</v>
+      </c>
+      <c r="B2154" s="2">
+        <v>6247.6010999999999</v>
+      </c>
+      <c r="C2154" s="2">
+        <v>34.902999877929688</v>
+      </c>
+      <c r="D2154" s="2">
+        <v>2.2225000858306885</v>
+      </c>
+      <c r="E2154" s="2">
+        <v>0.2950832406882391</v>
+      </c>
+      <c r="F2154" s="2">
+        <v>12913523800</v>
+      </c>
+      <c r="G2154" s="3">
+        <v>139152590240</v>
+      </c>
+      <c r="H2154" s="2">
+        <v>1.3898999999999999</v>
+      </c>
+      <c r="I2154" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2154" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2155" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B2155" s="2">
+        <v>6117.1073999999999</v>
+      </c>
+      <c r="C2155" s="2">
+        <v>34.316200256347656</v>
+      </c>
+      <c r="D2155" s="2">
+        <v>2.176300048828125</v>
+      </c>
+      <c r="E2155" s="2">
+        <v>0.34637554603900123</v>
+      </c>
+      <c r="F2155" s="2">
+        <v>13921253900</v>
+      </c>
+      <c r="G2155" s="3">
+        <v>139942744387</v>
+      </c>
+      <c r="H2155" s="2">
+        <v>1.4976</v>
+      </c>
+      <c r="I2155" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2155" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2156" s="1">
+        <v>45159</v>
+      </c>
+      <c r="B2156" s="2">
+        <v>6057.1707999999999</v>
+      </c>
+      <c r="C2156" s="2">
+        <v>34.081298828125</v>
+      </c>
+      <c r="D2156" s="2">
+        <v>2.1542000770568848</v>
+      </c>
+      <c r="E2156" s="2">
+        <v>0.38986047622799935</v>
+      </c>
+      <c r="F2156" s="2">
+        <v>11709169600</v>
+      </c>
+      <c r="G2156" s="3">
+        <v>119633708946</v>
+      </c>
+      <c r="H2156" s="2">
+        <v>1.2586999999999999</v>
+      </c>
+      <c r="I2156" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2156" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2157" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B2157" s="2">
+        <v>6099.1948000000002</v>
+      </c>
+      <c r="C2157" s="2">
+        <v>34.591598510742188</v>
+      </c>
+      <c r="D2157" s="2">
+        <v>2.1642999649047852</v>
+      </c>
+      <c r="E2157" s="2">
+        <v>0.34077536584774126</v>
+      </c>
+      <c r="F2157" s="2">
+        <v>14428242200</v>
+      </c>
+      <c r="G2157" s="3">
+        <v>153871289475</v>
+      </c>
+      <c r="H2157" s="2">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="I2157" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2157" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2158" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B2158" s="2">
+        <v>5973.6710999999996</v>
+      </c>
+      <c r="C2158" s="2">
+        <v>34.035099029541016</v>
+      </c>
+      <c r="D2158" s="2">
+        <v>2.1212999820709229</v>
+      </c>
+      <c r="E2158" s="2">
+        <v>0.38304335351879715</v>
+      </c>
+      <c r="F2158" s="2">
+        <v>12842238200</v>
+      </c>
+      <c r="G2158" s="3">
+        <v>135807067810</v>
+      </c>
+      <c r="H2158" s="2">
+        <v>1.3805000000000001</v>
+      </c>
+      <c r="I2158" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2158" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2159" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B2159" s="2">
+        <v>5987.9663</v>
+      </c>
+      <c r="C2159" s="2">
+        <v>33.995098114013672</v>
+      </c>
+      <c r="D2159" s="2">
+        <v>2.1254000663757324</v>
+      </c>
+      <c r="E2159" s="2">
+        <v>0.38680057031214643</v>
+      </c>
+      <c r="F2159" s="2">
+        <v>13419745100</v>
+      </c>
+      <c r="G2159" s="3">
+        <v>146793181320</v>
+      </c>
+      <c r="H2159" s="2">
+        <v>1.4423999999999999</v>
+      </c>
+      <c r="I2159" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2159" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2160" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B2160" s="2">
+        <v>5879.0267999999996</v>
+      </c>
+      <c r="C2160" s="2">
+        <v>33.777599334716797</v>
+      </c>
+      <c r="D2160" s="2">
+        <v>2.0831000804901123</v>
+      </c>
+      <c r="E2160" s="2">
+        <v>0.39004195589973323</v>
+      </c>
+      <c r="F2160" s="2">
+        <v>14011710800</v>
+      </c>
+      <c r="G2160" s="3">
+        <v>150562437510</v>
+      </c>
+      <c r="H2160" s="2">
+        <v>1.5059</v>
+      </c>
+      <c r="I2160" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2160" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2161" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B2161" s="2">
+        <v>5922.1616999999997</v>
+      </c>
+      <c r="C2161" s="2">
+        <v>34.409198760986328</v>
+      </c>
+      <c r="D2161" s="2">
+        <v>2.0947999954223633</v>
+      </c>
+      <c r="E2161" s="2">
+        <v>0.3183996094306476</v>
+      </c>
+      <c r="F2161" s="2">
+        <v>21087009800</v>
+      </c>
+      <c r="G2161" s="3">
+        <v>213172935998</v>
+      </c>
+      <c r="H2161" s="2">
+        <v>2.2650999999999999</v>
+      </c>
+      <c r="I2161" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2161" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2162" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B2162" s="2">
+        <v>6108.7588999999998</v>
+      </c>
+      <c r="C2162" s="2">
+        <v>35.753501892089844</v>
+      </c>
+      <c r="D2162" s="2">
+        <v>2.1563999652862549</v>
+      </c>
+      <c r="E2162" s="2">
+        <v>0.22692882397413916</v>
+      </c>
+      <c r="F2162" s="2">
+        <v>18668957600</v>
+      </c>
+      <c r="G2162" s="3">
+        <v>200633240452</v>
+      </c>
+      <c r="H2162" s="2">
+        <v>2.0053999999999998</v>
+      </c>
+      <c r="I2162" s="2">
+        <v>5</v>
+      </c>
+      <c r="J2162" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2163" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B2163" s="2">
+        <v>6139.6265000000003</v>
+      </c>
+      <c r="C2163" s="2">
+        <v>36.429298400878906</v>
+      </c>
+      <c r="D2163" s="2">
+        <v>2.1614999771118164</v>
+      </c>
+      <c r="E2163" s="2">
+        <v>0.18254325885088596</v>
+      </c>
+      <c r="F2163" s="2">
+        <v>16749956000</v>
+      </c>
+      <c r="G2163" s="3">
+        <v>194127658982</v>
+      </c>
+      <c r="H2163" s="2">
+        <v>1.7984</v>
+      </c>
+      <c r="I2163" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2163" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2164" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B2164" s="2">
+        <v>6104.2952999999998</v>
+      </c>
+      <c r="C2164" s="2">
+        <v>38.099998474121094</v>
+      </c>
+      <c r="D2164" s="2">
+        <v>2.1424000263214111</v>
+      </c>
+      <c r="E2164" s="2">
+        <v>7.0572021126815709E-2</v>
+      </c>
+      <c r="F2164" s="2">
+        <v>14304040900</v>
+      </c>
+      <c r="G2164" s="3">
+        <v>161004803813</v>
+      </c>
+      <c r="H2164" s="2">
+        <v>1.5357000000000001</v>
+      </c>
+      <c r="I2164" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2164" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2165" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B2165" s="2">
+        <v>6107.1995999999999</v>
+      </c>
+      <c r="C2165" s="2">
+        <v>38.139499664306641</v>
+      </c>
+      <c r="D2165" s="2">
+        <v>2.144399881362915</v>
+      </c>
+      <c r="E2165" s="2">
+        <v>3.9453640718216665E-2</v>
+      </c>
+      <c r="F2165" s="2">
+        <v>12401705300</v>
+      </c>
+      <c r="G2165" s="3">
+        <v>138221321938</v>
+      </c>
+      <c r="H2165" s="2">
+        <v>1.3313999999999999</v>
+      </c>
+      <c r="I2165" s="2">
+        <v>5</v>
+      </c>
+      <c r="J2165" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2166" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B2166" s="2">
+        <v>6198.7623000000003</v>
+      </c>
+      <c r="C2166" s="2">
+        <v>38.678600311279297</v>
+      </c>
+      <c r="D2166" s="2">
+        <v>2.1747000217437744</v>
+      </c>
+      <c r="E2166" s="2">
+        <v>-2.7091034959493943E-2</v>
+      </c>
+      <c r="F2166" s="2">
+        <v>15550728100</v>
+      </c>
+      <c r="G2166" s="3">
+        <v>167770708192</v>
+      </c>
+      <c r="H2166" s="2">
+        <v>1.6695</v>
+      </c>
+      <c r="I2166" s="2">
+        <v>4</v>
+      </c>
+      <c r="J2166" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2167" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B2167" s="2">
+        <v>6167.6421</v>
+      </c>
+      <c r="C2167" s="2">
+        <v>38.47760009765625</v>
+      </c>
+      <c r="D2167" s="2">
+        <v>2.1633999347686768</v>
+      </c>
+      <c r="E2167" s="2">
+        <v>-1.2085313371942963E-2</v>
+      </c>
+      <c r="F2167" s="2">
+        <v>14106799900</v>
+      </c>
+      <c r="G2167" s="3">
+        <v>162636723669</v>
+      </c>
+      <c r="H2167" s="2">
+        <v>1.5145</v>
+      </c>
+      <c r="I2167" s="2">
+        <v>6</v>
+      </c>
+      <c r="J2167" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2168" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B2168" s="2">
+        <v>6195.3828000000003</v>
+      </c>
+      <c r="C2168" s="2">
+        <v>38.621898651123047</v>
+      </c>
+      <c r="D2168" s="2">
+        <v>2.1714999675750732</v>
+      </c>
+      <c r="E2168" s="2">
+        <v>-4.5795339107643329E-2</v>
+      </c>
+      <c r="F2168" s="2">
+        <v>12971766400</v>
+      </c>
+      <c r="G2168" s="3">
+        <v>154853582103</v>
+      </c>
+      <c r="H2168" s="2">
+        <v>1.3926000000000001</v>
+      </c>
+      <c r="I2168" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2168" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2169" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B2169" s="2">
+        <v>6083.4893000000002</v>
+      </c>
+      <c r="C2169" s="2">
+        <v>37.936798095703125</v>
+      </c>
+      <c r="D2169" s="2">
+        <v>2.1329998970031738</v>
+      </c>
+      <c r="E2169" s="2">
+        <v>-6.5368976915212151E-3</v>
+      </c>
+      <c r="F2169" s="2">
+        <v>13225411600</v>
+      </c>
+      <c r="G2169" s="3">
+        <v>150714755551</v>
+      </c>
+      <c r="H2169" s="2">
+        <v>1.4187000000000001</v>
+      </c>
+      <c r="I2169" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2169" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2170" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B2170" s="2">
+        <v>6102.4883</v>
+      </c>
+      <c r="C2170" s="2">
+        <v>38.052799224853516</v>
+      </c>
+      <c r="D2170" s="2">
+        <v>2.1391000747680664</v>
+      </c>
+      <c r="E2170" s="2">
+        <v>-9.5724352208299557E-3</v>
+      </c>
+      <c r="F2170" s="2">
+        <v>11891827900</v>
+      </c>
+      <c r="G2170" s="3">
+        <v>142083251235</v>
+      </c>
+      <c r="H2170" s="2">
+        <v>1.2756000000000001</v>
+      </c>
+      <c r="I2170" s="2">
+        <v>4</v>
+      </c>
+      <c r="J2170" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
